--- a/THANHHUONG/DayThem.xlsx
+++ b/THANHHUONG/DayThem.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Q$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Q$22</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentManualCount="2"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>#</t>
   </si>
@@ -84,10 +84,28 @@
     <t>01208-742-637</t>
   </si>
   <si>
-    <t>2017/07~08</t>
-  </si>
-  <si>
-    <t>Phạm Thị Diệu Hoa</t>
+    <t>Võ Thị Thảo</t>
+  </si>
+  <si>
+    <t>Trần Phương Dung</t>
+  </si>
+  <si>
+    <t>Lê Thiên Hà</t>
+  </si>
+  <si>
+    <t>01284-468-521</t>
+  </si>
+  <si>
+    <t>01269-737-034</t>
+  </si>
+  <si>
+    <t>0903-188-758</t>
+  </si>
+  <si>
+    <t>2017/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      Hoàng Yến</t>
   </si>
 </sst>
 </file>
@@ -237,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -260,6 +278,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -586,10 +605,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="10" zoomScaleNormal="100" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="50.25" x14ac:dyDescent="0.7"/>
@@ -604,33 +623,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
+      <c r="C1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="10">
         <v>1</v>
       </c>
@@ -667,19 +686,19 @@
       <c r="N2" s="10">
         <v>12</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="3" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -692,9 +711,9 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="1.2">
       <c r="A4" s="4">
@@ -901,7 +920,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -916,14 +935,18 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="6"/>
+      <c r="P12" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="1.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -937,12 +960,18 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="6"/>
+      <c r="P13" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="1.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -956,12 +985,18 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
-      <c r="P14" s="6"/>
+      <c r="P14" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="1.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -994,7 +1029,7 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="6"/>
+      <c r="P16" s="8"/>
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="1.2">
@@ -1080,7 +1115,7 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -1092,29 +1127,11 @@
       <c r="P21" s="8"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="1.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="5"/>
-    </row>
-    <row r="23" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="22" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C1:Q1"/>
